--- a/2 Курс/Зайцев/АД/Семинары/Зайцев_ПИ20-2в_Задачи1-3.xlsx
+++ b/2 Курс/Зайцев/АД/Семинары/Зайцев_ПИ20-2в_Задачи1-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitazaytsev/git/FA/2 Курс/Зайцев/АД/Семинары/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9F7C7C-DDBB-F042-9B6B-85CC194EA9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E496B7B-25E5-604E-9CA5-E49899351317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D14CDCBC-7BB9-4348-B76A-D6FD53CC37AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{D14CDCBC-7BB9-4348-B76A-D6FD53CC37AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>mu=</t>
   </si>
@@ -58,6 +58,45 @@
   </si>
   <si>
     <t>Zкр=</t>
+  </si>
+  <si>
+    <t>Гипотезы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">𝐻0: 𝜇 = 21 </t>
+  </si>
+  <si>
+    <t>𝐻1: 𝜇 != 21</t>
+  </si>
+  <si>
+    <t>Z&gt;Zkp</t>
+  </si>
+  <si>
+    <t>Гипотеза h0 отвергается, тк (Z&gt;Zkp), а гипотеза h1(!=21) принимается</t>
+  </si>
+  <si>
+    <t>Z&gt;Zokp</t>
+  </si>
+  <si>
+    <t>Гипотеза h0 отвергается, тк (Z&gt;Zkp), а гипотеза h1 (Z&gt;100) принимается</t>
+  </si>
+  <si>
+    <t>h0: m=1000</t>
+  </si>
+  <si>
+    <t>h1:m&gt;1000</t>
+  </si>
+  <si>
+    <t>h0: m=13,2</t>
+  </si>
+  <si>
+    <t>h1:m&lt;13.2</t>
+  </si>
+  <si>
+    <t>Z&lt;Zokp</t>
+  </si>
+  <si>
+    <t>Гипотеза h1 принимается, тк (Z &lt; Zkp), а гипотеза h0 не принимается (Z&lt;Z1)</t>
   </si>
 </sst>
 </file>
@@ -82,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,12 +129,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA6CF8B-46C4-0441-B22E-38F2AEDA685C}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -434,7 +491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -442,23 +499,37 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -467,7 +538,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -476,22 +547,37 @@
         <v>1.6448536269514715</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99414176-F1F4-5F48-800E-44DD963DB647}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +585,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -507,7 +593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -515,23 +601,34 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -540,13 +637,23 @@
         <v>-97.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <f>_xlfn.NORM.S.INV(1-B5)</f>
         <v>1.6448536269514715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -556,15 +663,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1061670-28EB-F445-A8C2-1C8136353D33}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +679,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -580,7 +687,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -588,23 +695,34 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -613,13 +731,23 @@
         <v>-2.5298221281347035</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <f>_xlfn.NORM.S.INV(1-B5)</f>
         <v>1.6448536269514715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
